--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H2">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.90605626659461</v>
+        <v>0.5981746666666666</v>
       </c>
       <c r="N2">
-        <v>6.90605626659461</v>
+        <v>1.794524</v>
       </c>
       <c r="O2">
-        <v>0.2555342316912907</v>
+        <v>0.02144965888565845</v>
       </c>
       <c r="P2">
-        <v>0.2555342316912907</v>
+        <v>0.02144965888565845</v>
       </c>
       <c r="Q2">
-        <v>81.29470119276503</v>
+        <v>11.03886563989956</v>
       </c>
       <c r="R2">
-        <v>81.29470119276503</v>
+        <v>99.34979075909601</v>
       </c>
       <c r="S2">
-        <v>0.06548029647971818</v>
+        <v>0.007282106334847611</v>
       </c>
       <c r="T2">
-        <v>0.06548029647971818</v>
+        <v>0.007282106334847613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H3">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.1198972461143</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N3">
-        <v>20.1198972461143</v>
+        <v>20.769802</v>
       </c>
       <c r="O3">
-        <v>0.7444657683087093</v>
+        <v>0.2482581275160803</v>
       </c>
       <c r="P3">
-        <v>0.7444657683087093</v>
+        <v>0.2482581275160804</v>
       </c>
       <c r="Q3">
-        <v>236.8415447994222</v>
+        <v>127.7637154171898</v>
       </c>
       <c r="R3">
-        <v>236.8415447994222</v>
+        <v>1149.873438754708</v>
       </c>
       <c r="S3">
-        <v>0.1907683323099639</v>
+        <v>0.08428302252727218</v>
       </c>
       <c r="T3">
-        <v>0.1907683323099639</v>
+        <v>0.0842830225272722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.8509582311939</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H4">
-        <v>15.8509582311939</v>
+        <v>55.362754</v>
       </c>
       <c r="I4">
-        <v>0.3450523146064267</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J4">
-        <v>0.3450523146064267</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>6.90605626659461</v>
+        <v>0.1586656666666667</v>
       </c>
       <c r="N4">
-        <v>6.90605626659461</v>
+        <v>0.475997</v>
       </c>
       <c r="O4">
-        <v>0.2555342316912907</v>
+        <v>0.005689516150576289</v>
       </c>
       <c r="P4">
-        <v>0.2555342316912907</v>
+        <v>0.00568951615057629</v>
       </c>
       <c r="Q4">
-        <v>109.467609424066</v>
+        <v>2.928056090637556</v>
       </c>
       <c r="R4">
-        <v>109.467609424066</v>
+        <v>26.352504815738</v>
       </c>
       <c r="S4">
-        <v>0.08817267810625476</v>
+        <v>0.001931576712860045</v>
       </c>
       <c r="T4">
-        <v>0.08817267810625476</v>
+        <v>0.001931576712860045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.8509582311939</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H5">
-        <v>15.8509582311939</v>
+        <v>55.362754</v>
       </c>
       <c r="I5">
-        <v>0.3450523146064267</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J5">
-        <v>0.3450523146064267</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.1198972461143</v>
+        <v>20.20726666666667</v>
       </c>
       <c r="N5">
-        <v>20.1198972461143</v>
+        <v>60.6218</v>
       </c>
       <c r="O5">
-        <v>0.7444657683087093</v>
+        <v>0.7246026974476848</v>
       </c>
       <c r="P5">
-        <v>0.7444657683087093</v>
+        <v>0.7246026974476849</v>
       </c>
       <c r="Q5">
-        <v>318.9196508640709</v>
+        <v>372.9099778263556</v>
       </c>
       <c r="R5">
-        <v>318.9196508640709</v>
+        <v>3356.1898004372</v>
       </c>
       <c r="S5">
-        <v>0.2568796365001719</v>
+        <v>0.2460008301977934</v>
       </c>
       <c r="T5">
-        <v>0.2568796365001719</v>
+        <v>0.2460008301977934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.89375579677336</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>3.89375579677336</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.08476140247122727</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J6">
-        <v>0.08476140247122727</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>6.90605626659461</v>
+        <v>0.5981746666666666</v>
       </c>
       <c r="N6">
-        <v>6.90605626659461</v>
+        <v>1.794524</v>
       </c>
       <c r="O6">
-        <v>0.2555342316912907</v>
+        <v>0.02144965888565845</v>
       </c>
       <c r="P6">
-        <v>0.2555342316912907</v>
+        <v>0.02144965888565845</v>
       </c>
       <c r="Q6">
-        <v>26.89049662089575</v>
+        <v>9.502786194897777</v>
       </c>
       <c r="R6">
-        <v>26.89049662089575</v>
+        <v>85.52507575407999</v>
       </c>
       <c r="S6">
-        <v>0.02165943985756133</v>
+        <v>0.006268787192992521</v>
       </c>
       <c r="T6">
-        <v>0.02165943985756133</v>
+        <v>0.006268787192992523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.89375579677336</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>3.89375579677336</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.08476140247122727</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J7">
-        <v>0.08476140247122727</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.1198972461143</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N7">
-        <v>20.1198972461143</v>
+        <v>20.769802</v>
       </c>
       <c r="O7">
-        <v>0.7444657683087093</v>
+        <v>0.2482581275160803</v>
       </c>
       <c r="P7">
-        <v>0.7444657683087093</v>
+        <v>0.2482581275160804</v>
       </c>
       <c r="Q7">
-        <v>78.3419665325419</v>
+        <v>109.9851479926489</v>
       </c>
       <c r="R7">
-        <v>78.3419665325419</v>
+        <v>989.8663319338398</v>
       </c>
       <c r="S7">
-        <v>0.06310196261366594</v>
+        <v>0.07255487738174048</v>
       </c>
       <c r="T7">
-        <v>0.06310196261366594</v>
+        <v>0.0725548773817405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.4216179176535</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H8">
-        <v>14.4216179176535</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I8">
-        <v>0.3139376541326641</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J8">
-        <v>0.3139376541326641</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>6.90605626659461</v>
+        <v>0.1586656666666667</v>
       </c>
       <c r="N8">
-        <v>6.90605626659461</v>
+        <v>0.475997</v>
       </c>
       <c r="O8">
-        <v>0.2555342316912907</v>
+        <v>0.005689516150576289</v>
       </c>
       <c r="P8">
-        <v>0.2555342316912907</v>
+        <v>0.00568951615057629</v>
       </c>
       <c r="Q8">
-        <v>99.59650479464406</v>
+        <v>2.520611438137778</v>
       </c>
       <c r="R8">
-        <v>99.59650479464406</v>
+        <v>22.68550294324</v>
       </c>
       <c r="S8">
-        <v>0.08022181724775646</v>
+        <v>0.001662794087737395</v>
       </c>
       <c r="T8">
-        <v>0.08022181724775646</v>
+        <v>0.001662794087737396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.4216179176535</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H9">
-        <v>14.4216179176535</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I9">
-        <v>0.3139376541326641</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J9">
-        <v>0.3139376541326641</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.1198972461143</v>
+        <v>20.20726666666667</v>
       </c>
       <c r="N9">
-        <v>20.1198972461143</v>
+        <v>60.6218</v>
       </c>
       <c r="O9">
-        <v>0.7444657683087093</v>
+        <v>0.7246026974476848</v>
       </c>
       <c r="P9">
-        <v>0.7444657683087093</v>
+        <v>0.7246026974476849</v>
       </c>
       <c r="Q9">
-        <v>290.1614706259093</v>
+        <v>321.0188351617777</v>
       </c>
       <c r="R9">
-        <v>290.1614706259093</v>
+        <v>2889.169516456</v>
       </c>
       <c r="S9">
-        <v>0.2337158368849076</v>
+        <v>0.2117693402017215</v>
       </c>
       <c r="T9">
-        <v>0.2337158368849076</v>
+        <v>0.2117693402017215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.826026</v>
+      </c>
+      <c r="H10">
+        <v>14.478078</v>
+      </c>
+      <c r="I10">
+        <v>0.08878300750222795</v>
+      </c>
+      <c r="J10">
+        <v>0.08878300750222796</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.5981746666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.794524</v>
+      </c>
+      <c r="O10">
+        <v>0.02144965888565845</v>
+      </c>
+      <c r="P10">
+        <v>0.02144965888565845</v>
+      </c>
+      <c r="Q10">
+        <v>2.886806493874666</v>
+      </c>
+      <c r="R10">
+        <v>25.981258444872</v>
+      </c>
+      <c r="S10">
+        <v>0.001904365225765644</v>
+      </c>
+      <c r="T10">
+        <v>0.001904365225765645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.826026</v>
+      </c>
+      <c r="H11">
+        <v>14.478078</v>
+      </c>
+      <c r="I11">
+        <v>0.08878300750222795</v>
+      </c>
+      <c r="J11">
+        <v>0.08878300750222796</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.923267333333333</v>
+      </c>
+      <c r="N11">
+        <v>20.769802</v>
+      </c>
+      <c r="O11">
+        <v>0.2482581275160803</v>
+      </c>
+      <c r="P11">
+        <v>0.2482581275160804</v>
+      </c>
+      <c r="Q11">
+        <v>33.41186815561733</v>
+      </c>
+      <c r="R11">
+        <v>300.706813400556</v>
+      </c>
+      <c r="S11">
+        <v>0.02204110319774922</v>
+      </c>
+      <c r="T11">
+        <v>0.02204110319774923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.826026</v>
+      </c>
+      <c r="H12">
+        <v>14.478078</v>
+      </c>
+      <c r="I12">
+        <v>0.08878300750222795</v>
+      </c>
+      <c r="J12">
+        <v>0.08878300750222796</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1586656666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.475997</v>
+      </c>
+      <c r="O12">
+        <v>0.005689516150576289</v>
+      </c>
+      <c r="P12">
+        <v>0.00568951615057629</v>
+      </c>
+      <c r="Q12">
+        <v>0.7657246326406667</v>
+      </c>
+      <c r="R12">
+        <v>6.891521693766</v>
+      </c>
+      <c r="S12">
+        <v>0.0005051323550806617</v>
+      </c>
+      <c r="T12">
+        <v>0.0005051323550806619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.826026</v>
+      </c>
+      <c r="H13">
+        <v>14.478078</v>
+      </c>
+      <c r="I13">
+        <v>0.08878300750222795</v>
+      </c>
+      <c r="J13">
+        <v>0.08878300750222796</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.20726666666667</v>
+      </c>
+      <c r="N13">
+        <v>60.6218</v>
+      </c>
+      <c r="O13">
+        <v>0.7246026974476848</v>
+      </c>
+      <c r="P13">
+        <v>0.7246026974476849</v>
+      </c>
+      <c r="Q13">
+        <v>97.52079432226665</v>
+      </c>
+      <c r="R13">
+        <v>877.6871489004</v>
+      </c>
+      <c r="S13">
+        <v>0.06433240672363241</v>
+      </c>
+      <c r="T13">
+        <v>0.06433240672363243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H14">
+        <v>45.572872</v>
+      </c>
+      <c r="I14">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J14">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.5981746666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.794524</v>
+      </c>
+      <c r="O14">
+        <v>0.02144965888565845</v>
+      </c>
+      <c r="P14">
+        <v>0.02144965888565845</v>
+      </c>
+      <c r="Q14">
+        <v>9.086845839214222</v>
+      </c>
+      <c r="R14">
+        <v>81.78161255292801</v>
+      </c>
+      <c r="S14">
+        <v>0.005994400132052667</v>
+      </c>
+      <c r="T14">
+        <v>0.00599440013205267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H15">
+        <v>45.572872</v>
+      </c>
+      <c r="I15">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J15">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.923267333333333</v>
+      </c>
+      <c r="N15">
+        <v>20.769802</v>
+      </c>
+      <c r="O15">
+        <v>0.2482581275160803</v>
+      </c>
+      <c r="P15">
+        <v>0.2482581275160804</v>
+      </c>
+      <c r="Q15">
+        <v>105.1710586679271</v>
+      </c>
+      <c r="R15">
+        <v>946.539528011344</v>
+      </c>
+      <c r="S15">
+        <v>0.06937912440931844</v>
+      </c>
+      <c r="T15">
+        <v>0.06937912440931845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H16">
+        <v>45.572872</v>
+      </c>
+      <c r="I16">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J16">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1586656666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.475997</v>
+      </c>
+      <c r="O16">
+        <v>0.005689516150576289</v>
+      </c>
+      <c r="P16">
+        <v>0.00568951615057629</v>
+      </c>
+      <c r="Q16">
+        <v>2.410283372598223</v>
+      </c>
+      <c r="R16">
+        <v>21.692550353384</v>
+      </c>
+      <c r="S16">
+        <v>0.001590012994898187</v>
+      </c>
+      <c r="T16">
+        <v>0.001590012994898187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H17">
+        <v>45.572872</v>
+      </c>
+      <c r="I17">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J17">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.20726666666667</v>
+      </c>
+      <c r="N17">
+        <v>60.6218</v>
+      </c>
+      <c r="O17">
+        <v>0.7246026974476848</v>
+      </c>
+      <c r="P17">
+        <v>0.7246026974476849</v>
+      </c>
+      <c r="Q17">
+        <v>306.9677257566223</v>
+      </c>
+      <c r="R17">
+        <v>2762.7095318096</v>
+      </c>
+      <c r="S17">
+        <v>0.2025001203245375</v>
+      </c>
+      <c r="T17">
+        <v>0.2025001203245376</v>
       </c>
     </row>
   </sheetData>
